--- a/ig/main/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/ig/main/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-28T15:21:22+00:00</t>
+    <t>2023-11-28T15:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/ig/main/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-28T15:22:11+00:00</t>
+    <t>2023-11-28T15:24:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/ig/main/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-28T15:24:19+00:00</t>
+    <t>2023-12-11T13:50:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
